--- a/src/Stolons/wwwroot/bills/Stolons/2016_19.xlsx
+++ b/src/Stolons/wwwroot/bills/Stolons/2016_19.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Facture</t>
   </si>
@@ -56,22 +56,19 @@
     <t>PRIX TOTAL</t>
   </si>
   <si>
-    <t>La ferme de Robert</t>
-  </si>
-  <si>
-    <t>Pain complet</t>
+    <t>La ferme de Maurice</t>
+  </si>
+  <si>
+    <t>Pomme de terre</t>
+  </si>
+  <si>
+    <t>Au poids</t>
+  </si>
+  <si>
+    <t>Radis</t>
   </si>
   <si>
     <t>A la pièce</t>
-  </si>
-  <si>
-    <t>Pomme de terre</t>
-  </si>
-  <si>
-    <t>Au poids</t>
-  </si>
-  <si>
-    <t>Radis</t>
   </si>
   <si>
     <t>Salade</t>
@@ -191,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" view="pageLayout"/>
   </sheetViews>
@@ -305,7 +302,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="10">
-        <f ref="F6:F7" t="shared" si="1">F17</f>
+        <f ref="F6:F7" t="shared" si="1">F16</f>
       </c>
     </row>
     <row r="7">
@@ -410,10 +407,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F12" s="9">
         <f>D12*E12</f>
@@ -430,10 +427,10 @@
         <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" s="9">
         <f>D13*E13</f>
@@ -447,13 +444,13 @@
         <v>19</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F14" s="9">
         <f>D14*E14</f>
@@ -470,7 +467,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="6">
         <v>1</v>
@@ -480,31 +477,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
       <c r="F16" s="9">
-        <f>D16*E16</f>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="9">
-        <f>SUBTOTAL(9,F12:F16)</f>
+        <f>SUBTOTAL(9,F12:F15)</f>
       </c>
     </row>
   </sheetData>
@@ -518,7 +495,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
